--- a/biology/Médecine/Cartilage_thyroïde/Cartilage_thyroïde.xlsx
+++ b/biology/Médecine/Cartilage_thyroïde/Cartilage_thyroïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cartilage_thyro%C3%AFde</t>
+          <t>Cartilage_thyroïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cartilage thyroïde est un des 3 cartilages impairs qui participent à la formation du larynx. Il est palpable à la face antérieure du cou, notamment au niveau de sa partie antérieure appelée la proéminence laryngée ou « pomme d'Adam ». Son développement est variable selon les sexes, plus important chez l'homme, ce qui constitue un caractère sexuel secondaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cartilage_thyro%C3%AFde</t>
+          <t>Cartilage_thyroïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cartilage thyroïde est situé au-dessus du cartilage cricoïde et au-dessous de l'os hyoïde.
-Il a la forme d'un papillon,formé par les deux lames du cartilage thyroïde. Ce sont deux lames quadrilatères obliques en arrière et formant à l'avant un angle dièdre ouvert en arrière. Les deux lames font entre elles un angle de 90° chez l'homme et 120° chez la femme, saillant en avant et responsable de la proéminence laryngée, ou « pomme d'Adam » (nommée ainsi d'après une croyance populaire liée à la Bible[1]).
+Il a la forme d'un papillon,formé par les deux lames du cartilage thyroïde. Ce sont deux lames quadrilatères obliques en arrière et formant à l'avant un angle dièdre ouvert en arrière. Les deux lames font entre elles un angle de 90° chez l'homme et 120° chez la femme, saillant en avant et responsable de la proéminence laryngée, ou « pomme d'Adam » (nommée ainsi d'après une croyance populaire liée à la Bible).
 Les faces antéro-externes des lames sont lisses. Prés de leur bord postérieur se dessine un soulèvement formant la ligne (ou crête) oblique du cartilage thyroïde entre deux les tubercules supérieur et inférieur du cartilage thyroïde. Elle donne insertion dans sa partie inférieure au muscle sterno-thyroïdien et dans sa partie supérieure et en avant au muscle thyro-hyoïdien.
 Latéralement sous le tubercule supérieur un orifice inconstant formant le foramen thyroïde peut laisser passer l'artère et la veine laryngée supérieure.
 Les bords supérieurs des lames projettent en arrière un prolongement vers le haut : les cornes supérieures ou grandes cornes du cartilage thyroïde. A leur jonction médiale, les bords forment l'incisure ou l'échancrure supérieure du cartilage thyroïde. Sur ces bords s'insère la membrane thyro-hyoïdienne.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cartilage_thyro%C3%AFde</t>
+          <t>Cartilage_thyroïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cartilage thyroïde s'articule avec le cartilage cricoïde sous-jacent et est relié à lui par le biais du ligament crico-tyroïdien. 
 Il s'articule également avec le cartilage épiglottique en haut et est relié à lui par le ligament thyro-épiglottique. 
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cartilage_thyro%C3%AFde</t>
+          <t>Cartilage_thyroïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le développent du cartilage thyroïde diffère entre l'homme et la femme au cours de la puberté, il s'agit donc d'un caractère sexuel secondaire. Tout comme les autres structures du larynx, ce cartilage s'élargit de manière significativement plus importante chez l'homme. Ainsi, la pomme d'Adam est plus saillante sous la peau chez l'homme. Par ailleurs les femmes ont un tissu adipeux plus développé, participant à masquer la pomme d'Adam[réf. nécessaire].
 </t>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cartilage_thyro%C3%AFde</t>
+          <t>Cartilage_thyroïde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Abord chirurgical</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La chondrolaryngoplastie est une intervention de réduction de volume du cartilage.
 </t>
